--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2111.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2111.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.790407202012012</v>
+        <v>1.152440309524536</v>
       </c>
       <c r="B1">
-        <v>2.109083579036512</v>
+        <v>4.206967353820801</v>
       </c>
       <c r="C1">
-        <v>1.780579091960889</v>
+        <v>2.196130514144897</v>
       </c>
       <c r="D1">
-        <v>1.860475764930444</v>
+        <v>1.69752824306488</v>
       </c>
       <c r="E1">
-        <v>2.172314795561834</v>
+        <v>1.536093831062317</v>
       </c>
     </row>
   </sheetData>
